--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fperrino\Desktop\KPI UT_LAVORO_LEFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4BA2E7-622D-4B45-BA3F-52FE297613BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C4C6508F-7D0B-44EB-BB17-EA1BBBA9CD16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -177,13 +176,40 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Business TMP</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>totale Gamberini</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>EST3</t>
+  </si>
+  <si>
+    <t>totale Lanzarini</t>
+  </si>
+  <si>
+    <t>TOTALE TOT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +217,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +246,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,15 +260,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,19 +628,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B6B056-DB09-4CC0-8666-36FBC99AE47C}">
-  <dimension ref="A2:AE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="AF2" sqref="AF2:AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +735,35 @@
       <c r="AE2" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -753,7 +855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>31</v>
       </c>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -629,16 +629,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AN4"/>
+  <dimension ref="A2:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AN2"/>
+      <selection activeCell="Z26" sqref="Z25:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="15">
@@ -854,6 +863,41 @@
       <c r="AE3" t="s">
         <v>35</v>
       </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <f>AF3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AN3" si="0">AG3+1</f>
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
@@ -945,6 +989,170 @@
       </c>
       <c r="AE4" t="s">
         <v>35</v>
+      </c>
+      <c r="AF4">
+        <f>AF3+10</f>
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <f>AG3+10</f>
+        <v>12</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AN5" si="1">AH3+10</f>
+        <v>13</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>10000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5">
+        <v>100000</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5">
+        <f>AF4+10</f>
+        <v>21</v>
+      </c>
+      <c r="AG5">
+        <f>AG4+10</f>
+        <v>22</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01EC746-70C0-4612-AEF1-EE27BADFE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="73">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -203,13 +204,64 @@
   </si>
   <si>
     <t>TOTALE TOT</t>
+  </si>
+  <si>
+    <t>abcd*</t>
+  </si>
+  <si>
+    <t>ef*gh</t>
+  </si>
+  <si>
+    <t>*ilmn</t>
+  </si>
+  <si>
+    <t>Pippo</t>
+  </si>
+  <si>
+    <t>aaaa*</t>
+  </si>
+  <si>
+    <t>bb*bb</t>
+  </si>
+  <si>
+    <t>*cccc</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>abcd qualsiasi cosa</t>
+  </si>
+  <si>
+    <t>mikecccc</t>
+  </si>
+  <si>
+    <t>cosa cccc</t>
+  </si>
+  <si>
+    <t>a*cccc</t>
+  </si>
+  <si>
+    <t>bb anything bb</t>
+  </si>
+  <si>
+    <t>aaaappppp</t>
+  </si>
+  <si>
+    <t>aaaailmn</t>
+  </si>
+  <si>
+    <t>efmikegh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +344,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -628,29 +680,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AN5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z25:Z26"/>
+      <selection activeCell="AG26" sqref="AG13:AG26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" ht="15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -863,43 +915,41 @@
       <c r="AE3" t="s">
         <v>35</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3">
         <v>1</v>
       </c>
-      <c r="AG3">
-        <f>AF3+1</f>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AN3" si="0">AH3+1</f>
         <v>2</v>
       </c>
-      <c r="AH3">
-        <f t="shared" ref="AH3:AN3" si="0">AG3+1</f>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -990,44 +1040,42 @@
       <c r="AE4" t="s">
         <v>35</v>
       </c>
-      <c r="AF4">
-        <f>AF3+10</f>
-        <v>11</v>
-      </c>
-      <c r="AG4">
-        <f>AG3+10</f>
-        <v>12</v>
+      <c r="AF4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>72</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AN5" si="1">AH3+10</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1118,41 +1166,2685 @@
       <c r="AE5" t="s">
         <v>35</v>
       </c>
-      <c r="AF5">
-        <f>AF4+10</f>
-        <v>21</v>
-      </c>
-      <c r="AG5">
-        <f>AG4+10</f>
-        <v>22</v>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>71</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK5">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL5">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM5">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN5">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>10000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD6">
+        <v>100000</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AN6" si="2">AH5+10</f>
+        <v>31</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7">
+        <v>100000</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ref="AH7:AN7" si="3">AH6+10</f>
+        <v>41</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8">
+        <v>10000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>10000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8">
+        <v>100000</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:AN8" si="4">AH7+10</f>
+        <v>51</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>10000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>10000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9">
+        <v>100000</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ref="AH9:AN9" si="5">AH8+10</f>
+        <v>61</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>10000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>10000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10">
+        <v>100000</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ref="AH10:AN10" si="6">AH9+10</f>
+        <v>71</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>10000</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>10000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11">
+        <v>100000</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" ref="AH11:AN11" si="7">AH10+10</f>
+        <v>81</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>10000</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>10000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12">
+        <v>100000</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ref="AH12:AN12" si="8">AH11+10</f>
+        <v>91</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>10000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>10000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13">
+        <v>100000</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ref="AH13:AN13" si="9">AH12+10</f>
+        <v>101</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>10000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14">
+        <v>100000</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" ref="AH14:AN14" si="10">AH13+10</f>
+        <v>111</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>10000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15">
+        <v>10000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15">
+        <v>100000</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ref="AH15:AN15" si="11">AH14+10</f>
+        <v>121</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="11"/>
+        <v>122</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="11"/>
+        <v>126</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <v>10000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16">
+        <v>100000</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" ref="AH16:AN16" si="12">AH15+10</f>
+        <v>131</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>10000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>10000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17">
+        <v>100000</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" ref="AH17:AN17" si="13">AH16+10</f>
+        <v>141</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="13"/>
+        <v>146</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <v>10000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>10000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18">
+        <v>100000</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" ref="AH18:AN18" si="14">AH17+10</f>
+        <v>151</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="14"/>
+        <v>153</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="14"/>
+        <v>155</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="14"/>
+        <v>156</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="14"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>10000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19">
+        <v>100000</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" ref="AH19:AN19" si="15">AH18+10</f>
+        <v>161</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="15"/>
+        <v>162</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="15"/>
+        <v>163</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="15"/>
+        <v>164</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="15"/>
+        <v>166</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="15"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>10000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD20">
+        <v>100000</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" ref="AH20:AN20" si="16">AH19+10</f>
+        <v>171</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="16"/>
+        <v>173</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="16"/>
+        <v>174</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="16"/>
+        <v>176</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="16"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21">
+        <v>10000</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>10000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD21">
+        <v>100000</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" ref="AH21:AN21" si="17">AH20+10</f>
+        <v>181</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="17"/>
+        <v>182</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="17"/>
+        <v>183</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="17"/>
+        <v>184</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="17"/>
+        <v>185</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="17"/>
+        <v>186</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="17"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>10000</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>10000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD22">
+        <v>100000</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" ref="AH22:AN22" si="18">AH21+10</f>
+        <v>191</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="18"/>
+        <v>192</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="18"/>
+        <v>193</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="18"/>
+        <v>194</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="18"/>
+        <v>196</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="18"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>10000</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>10000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD23">
+        <v>100000</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" ref="AH23:AN23" si="19">AH22+10</f>
+        <v>201</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="19"/>
+        <v>202</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="19"/>
+        <v>203</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="19"/>
+        <v>204</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="19"/>
+        <v>205</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="19"/>
+        <v>206</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="19"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24">
+        <v>10000</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>10000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24">
+        <v>100000</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" ref="AH24:AN24" si="20">AH23+10</f>
+        <v>211</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="20"/>
+        <v>212</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="20"/>
+        <v>213</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="20"/>
+        <v>214</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="20"/>
+        <v>215</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="20"/>
+        <v>216</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="20"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25">
+        <v>10000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>10000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s">
+        <v>46</v>
+      </c>
+      <c r="W25" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD25">
+        <v>100000</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" ref="AH25:AN25" si="21">AH24+10</f>
+        <v>221</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="21"/>
+        <v>222</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="21"/>
+        <v>223</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="21"/>
+        <v>224</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="21"/>
+        <v>226</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="21"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
+        <v>10000</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>10000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26">
+        <v>100000</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" ref="AH26:AN26" si="22">AH25+10</f>
+        <v>231</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="22"/>
+        <v>232</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="22"/>
+        <v>233</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="22"/>
+        <v>234</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="22"/>
+        <v>235</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="22"/>
+        <v>236</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="22"/>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01EC746-70C0-4612-AEF1-EE27BADFE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D86BB-F407-40A6-A3DD-DC0799160538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="72">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -230,31 +230,28 @@
     <t>Pluto</t>
   </si>
   <si>
-    <t>abcde</t>
-  </si>
-  <si>
-    <t>abcd qualsiasi cosa</t>
-  </si>
-  <si>
-    <t>mikecccc</t>
-  </si>
-  <si>
-    <t>cosa cccc</t>
-  </si>
-  <si>
-    <t>a*cccc</t>
-  </si>
-  <si>
-    <t>bb anything bb</t>
-  </si>
-  <si>
-    <t>aaaappppp</t>
-  </si>
-  <si>
-    <t>aaaailmn</t>
-  </si>
-  <si>
-    <t>efmikegh</t>
+    <t>Caso D</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>Pippo 1</t>
+  </si>
+  <si>
+    <t>Pippo 2</t>
+  </si>
+  <si>
+    <t>Pippo 3</t>
+  </si>
+  <si>
+    <t>Pluto 1</t>
+  </si>
+  <si>
+    <t>Pluto 2</t>
+  </si>
+  <si>
+    <t>Pluto 3</t>
   </si>
 </sst>
 </file>
@@ -683,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG13:AG26"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,10 +913,10 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" t="s">
         <v>56</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>64</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1041,10 +1038,10 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
         <v>57</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>72</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AN5" si="1">AH3+10</f>
@@ -1167,10 +1164,10 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1293,10 +1290,10 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AH6">
         <f t="shared" ref="AH6:AN6" si="2">AH5+10</f>
@@ -1419,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AH7">
         <f t="shared" ref="AH7:AN7" si="3">AH6+10</f>
@@ -1545,10 +1542,10 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AH8">
         <f t="shared" ref="AH8:AN8" si="4">AH7+10</f>
@@ -1671,10 +1668,10 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AH9">
         <f t="shared" ref="AH9:AN9" si="5">AH8+10</f>
@@ -1797,10 +1794,10 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AG10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AH10">
         <f t="shared" ref="AH10:AN10" si="6">AH9+10</f>
@@ -1923,10 +1920,10 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AH11">
         <f t="shared" ref="AH11:AN11" si="7">AH10+10</f>
@@ -2049,10 +2046,10 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AG12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AH12">
         <f t="shared" ref="AH12:AN12" si="8">AH11+10</f>
@@ -2175,10 +2172,10 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AH13">
         <f t="shared" ref="AH13:AN13" si="9">AH12+10</f>
@@ -2301,10 +2298,10 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AG14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AH14">
         <f t="shared" ref="AH14:AN14" si="10">AH13+10</f>
@@ -2427,10 +2424,10 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH15">
         <f t="shared" ref="AH15:AN15" si="11">AH14+10</f>
@@ -2553,10 +2550,10 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH16">
         <f t="shared" ref="AH16:AN16" si="12">AH15+10</f>
@@ -2679,10 +2676,10 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH17">
         <f t="shared" ref="AH17:AN17" si="13">AH16+10</f>
@@ -2805,10 +2802,10 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AG18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AH18">
         <f t="shared" ref="AH18:AN18" si="14">AH17+10</f>
@@ -2931,10 +2928,10 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AG19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AH19">
         <f t="shared" ref="AH19:AN19" si="15">AH18+10</f>
@@ -3057,10 +3054,10 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AG20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AH20">
         <f t="shared" ref="AH20:AN20" si="16">AH19+10</f>
@@ -3183,10 +3180,10 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AG21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AH21">
         <f t="shared" ref="AH21:AN21" si="17">AH20+10</f>
@@ -3309,10 +3306,10 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AG22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AH22">
         <f t="shared" ref="AH22:AN22" si="18">AH21+10</f>
@@ -3435,10 +3432,10 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AH23">
         <f t="shared" ref="AH23:AN23" si="19">AH22+10</f>
@@ -3561,10 +3558,10 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AG24" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AH24">
         <f t="shared" ref="AH24:AN24" si="20">AH23+10</f>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D86BB-F407-40A6-A3DD-DC0799160538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC992F96-A794-4321-A91B-8AFF6F7ED35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,11 +1042,10 @@
         <v>57</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AN5" si="1">AH3+10</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AH4:AN5" si="1">AI3+10</f>
         <v>12</v>
       </c>
       <c r="AJ4">
@@ -1170,8 +1167,7 @@
         <v>64</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AI5">
         <f t="shared" si="1"/>
@@ -1296,11 +1292,10 @@
         <v>65</v>
       </c>
       <c r="AH6">
-        <f t="shared" ref="AH6:AN6" si="2">AH5+10</f>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AH6:AN6" si="2">AI5+10</f>
         <v>32</v>
       </c>
       <c r="AJ6">
@@ -1422,11 +1417,10 @@
         <v>61</v>
       </c>
       <c r="AH7">
-        <f t="shared" ref="AH7:AN7" si="3">AH6+10</f>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AH7:AN7" si="3">AI6+10</f>
         <v>42</v>
       </c>
       <c r="AJ7">
@@ -1548,11 +1542,10 @@
         <v>60</v>
       </c>
       <c r="AH8">
-        <f t="shared" ref="AH8:AN8" si="4">AH7+10</f>
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AH8:AN8" si="4">AI7+10</f>
         <v>52</v>
       </c>
       <c r="AJ8">
@@ -1674,11 +1667,10 @@
         <v>58</v>
       </c>
       <c r="AH9">
-        <f t="shared" ref="AH9:AN9" si="5">AH8+10</f>
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AH9:AN9" si="5">AI8+10</f>
         <v>62</v>
       </c>
       <c r="AJ9">
@@ -1800,11 +1792,10 @@
         <v>62</v>
       </c>
       <c r="AH10">
-        <f t="shared" ref="AH10:AN10" si="6">AH9+10</f>
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AH10:AN10" si="6">AI9+10</f>
         <v>72</v>
       </c>
       <c r="AJ10">
@@ -1926,11 +1917,10 @@
         <v>56</v>
       </c>
       <c r="AH11">
-        <f t="shared" ref="AH11:AN11" si="7">AH10+10</f>
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AH11:AN11" si="7">AI10+10</f>
         <v>82</v>
       </c>
       <c r="AJ11">
@@ -2052,11 +2042,10 @@
         <v>57</v>
       </c>
       <c r="AH12">
-        <f t="shared" ref="AH12:AN12" si="8">AH11+10</f>
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AH12:AN12" si="8">AI11+10</f>
         <v>92</v>
       </c>
       <c r="AJ12">
@@ -2178,11 +2167,10 @@
         <v>64</v>
       </c>
       <c r="AH13">
-        <f t="shared" ref="AH13:AN13" si="9">AH12+10</f>
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AH13:AN13" si="9">AI12+10</f>
         <v>102</v>
       </c>
       <c r="AJ13">
@@ -2304,11 +2292,10 @@
         <v>65</v>
       </c>
       <c r="AH14">
-        <f t="shared" ref="AH14:AN14" si="10">AH13+10</f>
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AH14:AN14" si="10">AI13+10</f>
         <v>112</v>
       </c>
       <c r="AJ14">
@@ -2430,11 +2417,10 @@
         <v>61</v>
       </c>
       <c r="AH15">
-        <f t="shared" ref="AH15:AN15" si="11">AH14+10</f>
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AH15:AN15" si="11">AI14+10</f>
         <v>122</v>
       </c>
       <c r="AJ15">
@@ -2556,11 +2542,10 @@
         <v>60</v>
       </c>
       <c r="AH16">
-        <f t="shared" ref="AH16:AN16" si="12">AH15+10</f>
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AH16:AN16" si="12">AI15+10</f>
         <v>132</v>
       </c>
       <c r="AJ16">
@@ -2682,11 +2667,10 @@
         <v>58</v>
       </c>
       <c r="AH17">
-        <f t="shared" ref="AH17:AN17" si="13">AH16+10</f>
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AH17:AN17" si="13">AI16+10</f>
         <v>142</v>
       </c>
       <c r="AJ17">
@@ -2808,11 +2792,10 @@
         <v>62</v>
       </c>
       <c r="AH18">
-        <f t="shared" ref="AH18:AN18" si="14">AH17+10</f>
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AH18:AN18" si="14">AI17+10</f>
         <v>152</v>
       </c>
       <c r="AJ18">
@@ -2934,11 +2917,10 @@
         <v>66</v>
       </c>
       <c r="AH19">
-        <f t="shared" ref="AH19:AN19" si="15">AH18+10</f>
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AH19:AN19" si="15">AI18+10</f>
         <v>162</v>
       </c>
       <c r="AJ19">
@@ -3060,11 +3042,10 @@
         <v>67</v>
       </c>
       <c r="AH20">
-        <f t="shared" ref="AH20:AN20" si="16">AH19+10</f>
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AH20:AN20" si="16">AI19+10</f>
         <v>172</v>
       </c>
       <c r="AJ20">
@@ -3186,11 +3167,10 @@
         <v>68</v>
       </c>
       <c r="AH21">
-        <f t="shared" ref="AH21:AN21" si="17">AH20+10</f>
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AH21:AN21" si="17">AI20+10</f>
         <v>182</v>
       </c>
       <c r="AJ21">
@@ -3312,11 +3292,10 @@
         <v>69</v>
       </c>
       <c r="AH22">
-        <f t="shared" ref="AH22:AN22" si="18">AH21+10</f>
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AH22:AN22" si="18">AI21+10</f>
         <v>192</v>
       </c>
       <c r="AJ22">
@@ -3438,11 +3417,10 @@
         <v>70</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AN23" si="19">AH22+10</f>
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AH23:AN23" si="19">AI22+10</f>
         <v>202</v>
       </c>
       <c r="AJ23">
@@ -3564,11 +3542,10 @@
         <v>71</v>
       </c>
       <c r="AH24">
-        <f t="shared" ref="AH24:AN24" si="20">AH23+10</f>
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AH24:AN24" si="20">AI23+10</f>
         <v>212</v>
       </c>
       <c r="AJ24">
@@ -3690,11 +3667,10 @@
         <v>59</v>
       </c>
       <c r="AH25">
-        <f t="shared" ref="AH25:AN25" si="21">AH24+10</f>
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AH25:AN25" si="21">AI24+10</f>
         <v>222</v>
       </c>
       <c r="AJ25">
@@ -3816,11 +3792,10 @@
         <v>59</v>
       </c>
       <c r="AH26">
-        <f t="shared" ref="AH26:AN26" si="22">AH25+10</f>
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AH26:AN26" si="22">AI25+10</f>
         <v>232</v>
       </c>
       <c r="AJ26">
